--- a/TFR.xlsx
+++ b/TFR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Pablo\OneDrive\Documentos\GitHub\Paper-pandemic-births\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E597BE51-0E93-4EBC-9B48-30442F90FBDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B360D45A-77A1-40D3-8A25-B729BDF5F186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="12">
   <si>
     <t>Area</t>
   </si>
@@ -28,6 +28,9 @@
     <t>Years_Study</t>
   </si>
   <si>
+    <t>Rate</t>
+  </si>
+  <si>
     <t>Brazil</t>
   </si>
   <si>
@@ -49,17 +52,17 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>With Pandemic</t>
-  </si>
-  <si>
-    <t>Projection</t>
+    <t>With effect of the mean variations</t>
+  </si>
+  <si>
+    <t>With effect of the variation of july</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,6 +78,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -84,7 +95,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -92,122 +103,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -230,22 +135,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>90489</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>296332</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>171974</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>493941</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>121940</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
+        <xdr:cNvPr id="5" name="Imagen 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5E0C035-A28E-4C23-9E89-66C82118A748}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFCE23DC-3FCA-4359-8817-1AAB1AFB41C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -267,8 +172,58 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4552950" y="57150"/>
-          <a:ext cx="7573432" cy="3753374"/>
+          <a:off x="6267449" y="2757489"/>
+          <a:ext cx="5837467" cy="2888951"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>89901</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>39157</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>181497</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20B00121-85C7-47C3-A2F3-7648864210CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190499" y="2756901"/>
+          <a:ext cx="5973233" cy="2949096"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -601,203 +556,247 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="11" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>2.157</v>
+      </c>
+      <c r="D2">
+        <v>1.600875</v>
+      </c>
+      <c r="E2">
+        <v>1.634079583333333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>1.50325</v>
+      </c>
+      <c r="D3">
+        <v>1.4110450000000001</v>
+      </c>
+      <c r="E3">
+        <v>1.4399452083333331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>1.0974999999999999</v>
+      </c>
+      <c r="D4">
+        <v>1.04156</v>
+      </c>
+      <c r="E4">
+        <v>1.044352916666667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>2.2734999999999999</v>
+      </c>
+      <c r="D5">
+        <v>2.2008100000000002</v>
+      </c>
+      <c r="E5">
+        <v>1.92862625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>1.5840000000000001</v>
+      </c>
+      <c r="D6">
+        <v>1.472715</v>
+      </c>
+      <c r="E6">
+        <v>1.415124791666666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>1.1555</v>
+      </c>
+      <c r="D7">
+        <v>1.021855</v>
+      </c>
+      <c r="E7">
+        <v>1.0216675</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>2.0785</v>
+      </c>
+      <c r="D8">
+        <v>1.5887</v>
+      </c>
+      <c r="E8">
+        <v>1.5284879166666669</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>1.448</v>
+      </c>
+      <c r="D9">
+        <v>1.2615075</v>
+      </c>
+      <c r="E9">
+        <v>1.33765125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>1.056</v>
+      </c>
+      <c r="D10">
+        <v>1.069475</v>
+      </c>
+      <c r="E10">
+        <v>1.091362916666667</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3">
-        <v>2.157</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1.600875</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="B11" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6">
-        <v>1.50325</v>
-      </c>
-      <c r="D3" s="7">
-        <v>1.4110450000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="C11">
+        <v>2.7825000000000002</v>
+      </c>
+      <c r="D11">
+        <v>2.5106600000000001</v>
+      </c>
+      <c r="E11">
+        <v>2.4487545833333342</v>
+      </c>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="6">
-        <v>1.0974999999999999</v>
-      </c>
-      <c r="D4" s="7">
-        <v>1.04156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="C12">
+        <v>1.9379999999999999</v>
+      </c>
+      <c r="D12">
+        <v>1.8235699999999999</v>
+      </c>
+      <c r="E12">
+        <v>1.831766041666667</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="6">
-        <v>2.2734999999999999</v>
-      </c>
-      <c r="D5" s="7">
-        <v>2.2008100000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1.5840000000000001</v>
-      </c>
-      <c r="D6" s="7">
-        <v>1.472715</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="6">
-        <v>1.1555</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1.021855</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="6">
-        <v>2.0785</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1.5887</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="6">
-        <v>1.448</v>
-      </c>
-      <c r="D9" s="7">
-        <v>1.2615075</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="6">
-        <v>1.056</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1.069475</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="6">
-        <v>2.7825000000000002</v>
-      </c>
-      <c r="D11" s="7">
-        <v>2.5106600000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="6">
-        <v>1.9379999999999999</v>
-      </c>
-      <c r="D12" s="7">
-        <v>1.8235699999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="9">
+      <c r="C13">
         <v>1.415</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13">
         <v>1.2749999999999999</v>
       </c>
+      <c r="E13">
+        <v>1.2916000000000001</v>
+      </c>
+      <c r="H13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>